--- a/AAII_Financials/Quarterly/GCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>GCT</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,156 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E8" s="3">
         <v>124000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>112400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>414200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>103700</v>
+      </c>
+      <c r="I8" s="3">
         <v>111800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>94500</v>
       </c>
-      <c r="I8" s="3">
-        <v>275500</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>76400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>105400</v>
+      </c>
+      <c r="E9" s="3">
         <v>107000</v>
       </c>
-      <c r="E9" s="3">
-        <v>95600</v>
-      </c>
       <c r="F9" s="3">
+        <v>161900</v>
+      </c>
+      <c r="G9" s="3">
         <v>324600</v>
       </c>
-      <c r="G9" s="3">
-        <v>82900</v>
-      </c>
       <c r="H9" s="3">
-        <v>73600</v>
+        <v>83500</v>
       </c>
       <c r="I9" s="3">
-        <v>200400</v>
+        <v>147300</v>
       </c>
       <c r="J9" s="3">
+        <v>133100</v>
+      </c>
+      <c r="K9" s="3">
         <v>52400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E10" s="3">
         <v>17000</v>
       </c>
-      <c r="E10" s="3">
-        <v>16800</v>
-      </c>
       <c r="F10" s="3">
+        <v>-49500</v>
+      </c>
+      <c r="G10" s="3">
         <v>89600</v>
       </c>
-      <c r="G10" s="3">
-        <v>28900</v>
-      </c>
       <c r="H10" s="3">
-        <v>20900</v>
+        <v>20200</v>
       </c>
       <c r="I10" s="3">
-        <v>75100</v>
+        <v>-35500</v>
       </c>
       <c r="J10" s="3">
+        <v>-38600</v>
+      </c>
+      <c r="K10" s="3">
         <v>24000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,8 +826,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -843,8 +856,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,8 +888,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,25 +920,28 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>200</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -930,8 +952,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,66 +965,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>123800</v>
       </c>
       <c r="E17" s="3">
+        <v>115800</v>
+      </c>
+      <c r="F17" s="3">
         <v>105000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>374800</v>
       </c>
-      <c r="G17" s="3">
-        <v>95300</v>
-      </c>
       <c r="H17" s="3">
+        <v>102900</v>
+      </c>
+      <c r="I17" s="3">
+        <v>95100</v>
+      </c>
+      <c r="J17" s="3">
         <v>83900</v>
       </c>
-      <c r="I17" s="3">
-        <v>231300</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>63400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>4300</v>
       </c>
       <c r="E18" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F18" s="3">
         <v>7400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>39400</v>
       </c>
-      <c r="G18" s="3">
-        <v>16500</v>
-      </c>
       <c r="H18" s="3">
+        <v>800</v>
+      </c>
+      <c r="I18" s="3">
+        <v>16700</v>
+      </c>
+      <c r="J18" s="3">
         <v>10600</v>
       </c>
-      <c r="I18" s="3">
-        <v>44200</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>13000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1011,66 +1043,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-1500</v>
       </c>
       <c r="E20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>-600</v>
       </c>
       <c r="I20" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>3100</v>
       </c>
       <c r="E21" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F21" s="3">
         <v>6800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>38800</v>
       </c>
-      <c r="G21" s="3">
-        <v>16700</v>
-      </c>
       <c r="H21" s="3">
+        <v>500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>16800</v>
+      </c>
+      <c r="J21" s="3">
         <v>10100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>13100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1078,86 +1117,95 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E23" s="3">
         <v>7300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>37700</v>
       </c>
-      <c r="G23" s="3">
-        <v>16500</v>
-      </c>
       <c r="H23" s="3">
+        <v>200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>16600</v>
+      </c>
+      <c r="J23" s="3">
         <v>9900</v>
       </c>
-      <c r="I23" s="3">
-        <v>45300</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>13000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I24" s="3">
         <v>3000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>2000</v>
       </c>
-      <c r="I24" s="3">
-        <v>7800</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,66 +1233,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>700</v>
       </c>
       <c r="E26" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F26" s="3">
         <v>4700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>29300</v>
       </c>
-      <c r="G26" s="3">
-        <v>13500</v>
-      </c>
       <c r="H26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>13600</v>
+      </c>
+      <c r="J26" s="3">
         <v>8000</v>
       </c>
-      <c r="I26" s="3">
-        <v>37500</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>10400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>500</v>
       </c>
       <c r="E27" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F27" s="3">
         <v>1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9000</v>
       </c>
-      <c r="G27" s="3">
-        <v>4000</v>
-      </c>
       <c r="H27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J27" s="3">
         <v>2300</v>
       </c>
-      <c r="I27" s="3">
-        <v>13000</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,8 +1329,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1301,8 +1361,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1393,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1359,66 +1425,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>1500</v>
       </c>
       <c r="E32" s="3">
+        <v>700</v>
+      </c>
+      <c r="F32" s="3">
         <v>900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>600</v>
       </c>
       <c r="I32" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>500</v>
       </c>
       <c r="E33" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F33" s="3">
         <v>1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9000</v>
       </c>
-      <c r="G33" s="3">
-        <v>4000</v>
-      </c>
       <c r="H33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J33" s="3">
         <v>2300</v>
       </c>
-      <c r="I33" s="3">
-        <v>13000</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,71 +1521,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>500</v>
       </c>
       <c r="E35" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F35" s="3">
         <v>1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9000</v>
       </c>
-      <c r="G35" s="3">
-        <v>4000</v>
-      </c>
       <c r="H35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J35" s="3">
         <v>2300</v>
       </c>
-      <c r="I35" s="3">
-        <v>13000</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1522,8 +1606,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,26 +1620,27 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>116200</v>
+      </c>
+      <c r="E41" s="3">
         <v>49200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>48900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>63200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>48400</v>
       </c>
-      <c r="H41" s="3">
-        <v>54000</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>8</v>
       </c>
@@ -1564,8 +1650,11 @@
       <c r="K41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1593,26 +1682,29 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E43" s="3">
         <v>23400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>24700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>21800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>29100</v>
       </c>
-      <c r="H43" s="3">
-        <v>39200</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>8</v>
       </c>
@@ -1622,26 +1714,29 @@
       <c r="K43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>83400</v>
+      </c>
+      <c r="E44" s="3">
         <v>103400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>110700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>81400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>65200</v>
       </c>
-      <c r="H44" s="3">
-        <v>45400</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>8</v>
       </c>
@@ -1651,26 +1746,29 @@
       <c r="K44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E45" s="3">
         <v>8300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15500</v>
       </c>
-      <c r="H45" s="3">
-        <v>9000</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1680,26 +1778,29 @@
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>230600</v>
+      </c>
+      <c r="E46" s="3">
         <v>184300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>187300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>172400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>158300</v>
       </c>
-      <c r="H46" s="3">
-        <v>147500</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>8</v>
       </c>
@@ -1709,8 +1810,11 @@
       <c r="K46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1738,26 +1842,29 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>138200</v>
+      </c>
+      <c r="E48" s="3">
         <v>146800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>156700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6300</v>
       </c>
-      <c r="H48" s="3">
-        <v>6400</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>8</v>
       </c>
@@ -1767,8 +1874,11 @@
       <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1796,8 +1906,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1825,8 +1938,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1854,26 +1970,29 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E52" s="3">
         <v>4200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3">
-        <v>300</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>8</v>
       </c>
@@ -1883,8 +2002,11 @@
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,26 +2034,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>372100</v>
+      </c>
+      <c r="E54" s="3">
         <v>335300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>347200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>186800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>164700</v>
       </c>
-      <c r="H54" s="3">
-        <v>154200</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>8</v>
       </c>
@@ -1941,8 +2066,11 @@
       <c r="K54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1954,8 +2082,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1967,26 +2096,27 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E57" s="3">
         <v>30800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>33200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>25100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>25300</v>
       </c>
-      <c r="H57" s="3">
-        <v>18900</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>8</v>
       </c>
@@ -1996,8 +2126,11 @@
       <c r="K57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2005,13 +2138,13 @@
         <v>300</v>
       </c>
       <c r="E58" s="3">
+        <v>300</v>
+      </c>
+      <c r="F58" s="3">
         <v>3600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1400</v>
       </c>
       <c r="H58" s="3">
         <v>1400</v>
@@ -2025,26 +2158,29 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>62700</v>
+      </c>
+      <c r="E59" s="3">
         <v>58300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>63900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>29200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>27300</v>
       </c>
-      <c r="H59" s="3">
-        <v>37000</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2054,26 +2190,29 @@
       <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>93300</v>
+      </c>
+      <c r="E60" s="3">
         <v>89300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>100700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>57000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>54000</v>
       </c>
-      <c r="H60" s="3">
-        <v>57300</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2083,26 +2222,29 @@
       <c r="K60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E61" s="3">
         <v>2200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1800</v>
       </c>
-      <c r="H61" s="3">
-        <v>2200</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2112,25 +2254,28 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>99100</v>
+      </c>
+      <c r="E62" s="3">
         <v>108700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>112700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1300</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
@@ -2141,8 +2286,11 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2318,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,8 +2350,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,26 +2382,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>193900</v>
+      </c>
+      <c r="E66" s="3">
         <v>200200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>216500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>60900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>55800</v>
       </c>
-      <c r="H66" s="3">
-        <v>59500</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>8</v>
       </c>
@@ -2257,8 +2414,11 @@
       <c r="K66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2270,8 +2430,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2299,8 +2460,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,26 +2492,29 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
         <v>28300</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>27900</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>27500</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>26800</v>
       </c>
-      <c r="H70" s="3">
-        <v>26400</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2357,8 +2524,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2386,26 +2556,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>71100</v>
+      </c>
+      <c r="E72" s="3">
         <v>70700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>64900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>60600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>44600</v>
       </c>
-      <c r="H72" s="3">
-        <v>31500</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>8</v>
       </c>
@@ -2415,8 +2588,11 @@
       <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,8 +2620,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,8 +2652,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,26 +2684,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>178200</v>
+      </c>
+      <c r="E76" s="3">
         <v>106800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>102800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>98300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>82100</v>
       </c>
-      <c r="H76" s="3">
-        <v>68300</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>8</v>
       </c>
@@ -2531,8 +2716,11 @@
       <c r="K76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2560,71 +2748,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>500</v>
       </c>
       <c r="E81" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F81" s="3">
         <v>1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9000</v>
       </c>
-      <c r="G81" s="3">
-        <v>4000</v>
-      </c>
       <c r="H81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J81" s="3">
         <v>2300</v>
       </c>
-      <c r="I81" s="3">
-        <v>13000</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,37 +2833,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
         <v>300</v>
       </c>
       <c r="F83" s="3">
+        <v>300</v>
+      </c>
+      <c r="G83" s="3">
         <v>800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
+        <v>300</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>100</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3">
+        <v>100</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2694,8 +2895,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2723,8 +2927,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +2959,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2781,8 +2991,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2810,37 +3023,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E89" s="3">
         <v>4200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-14500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="I89" s="3">
         <v>-5300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-6500</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>21900</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,37 +3071,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1800</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2910,8 +3133,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2939,37 +3165,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
       <c r="F94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1800</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2981,8 +3213,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3010,8 +3243,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3039,8 +3275,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,8 +3307,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3097,91 +3339,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-500</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-2100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-14300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="I102" s="3">
         <v>-5600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-7600</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>21900</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>GCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,168 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>125600</v>
+      </c>
+      <c r="E8" s="3">
         <v>128000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>124000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>112400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>414200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>103700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>111800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>94500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>76400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>98900</v>
+      </c>
+      <c r="E9" s="3">
         <v>105400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>107000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>161900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>324600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>83500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>147300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>133100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>52400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E10" s="3">
         <v>22600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>17000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-49500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>89600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>20200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-35500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-38600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>24000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,13 +839,14 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
+      <c r="D12" s="3">
+        <v>1400</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
@@ -859,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,31 +907,34 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-1100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -923,8 +942,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -934,17 +956,17 @@
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>200</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -955,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -966,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>109500</v>
+      </c>
+      <c r="E17" s="3">
         <v>123800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>115800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>105000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>374800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>102900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>95100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>83900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>63400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E18" s="3">
         <v>4300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>39400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>16700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,72 +1076,79 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E21" s="3">
         <v>3100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>6800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>38800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>16800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>10100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1120,92 +1159,101 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E23" s="3">
         <v>2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>37700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>16600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>9900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>13000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E24" s="3">
         <v>2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1236,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E26" s="3">
         <v>700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>29300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>13600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1332,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1364,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1396,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1428,72 +1494,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1524,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1607,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1621,29 +1706,30 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>143500</v>
+      </c>
+      <c r="E41" s="3">
         <v>116200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>49200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>48900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>63200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>48400</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>8</v>
       </c>
@@ -1653,8 +1739,11 @@
       <c r="L41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1685,29 +1774,32 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E43" s="3">
         <v>22200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>23400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>24700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>21800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>29100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>8</v>
       </c>
@@ -1717,29 +1809,32 @@
       <c r="L43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>78300</v>
+      </c>
+      <c r="E44" s="3">
         <v>83400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>103400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>110700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>81400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>65200</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
       </c>
@@ -1749,29 +1844,32 @@
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E45" s="3">
         <v>8900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15500</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1781,29 +1879,32 @@
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>258100</v>
+      </c>
+      <c r="E46" s="3">
         <v>230600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>184300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>187300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>172400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>158300</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>8</v>
       </c>
@@ -1813,8 +1914,11 @@
       <c r="L46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1845,29 +1949,32 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>157200</v>
+      </c>
+      <c r="E48" s="3">
         <v>138200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>146800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>156700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6300</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
       </c>
@@ -1877,8 +1984,11 @@
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1909,8 +2019,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1941,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1973,8 +2089,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1982,20 +2101,20 @@
         <v>3300</v>
       </c>
       <c r="E52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F52" s="3">
         <v>4200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2005,8 +2124,11 @@
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2037,29 +2159,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>418600</v>
+      </c>
+      <c r="E54" s="3">
         <v>372100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>335300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>347200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>186800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>164700</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2069,8 +2194,11 @@
       <c r="L54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2083,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2097,29 +2226,30 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E57" s="3">
         <v>30400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>30800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>33200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>25100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>25300</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2129,29 +2259,32 @@
       <c r="L57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>300</v>
+        <v>3100</v>
       </c>
       <c r="E58" s="3">
         <v>300</v>
       </c>
       <c r="F58" s="3">
+        <v>300</v>
+      </c>
+      <c r="G58" s="3">
         <v>3600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1400</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2161,29 +2294,32 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>67900</v>
+      </c>
+      <c r="E59" s="3">
         <v>62700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>58300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>63900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>29200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>27300</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2193,29 +2329,32 @@
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>102600</v>
+      </c>
+      <c r="E60" s="3">
         <v>93300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>89300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>100700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>57000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>54000</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2225,29 +2364,32 @@
       <c r="L60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1800</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2257,26 +2399,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>119900</v>
+      </c>
+      <c r="E62" s="3">
         <v>99100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>108700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>112700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1300</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2289,8 +2434,11 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2321,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2353,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2385,29 +2539,32 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>223400</v>
+      </c>
+      <c r="E66" s="3">
         <v>193900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>200200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>216500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>60900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>55800</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>8</v>
       </c>
@@ -2417,8 +2574,11 @@
       <c r="L66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2431,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2463,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2495,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2504,20 +2671,20 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>28300</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>27900</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>27500</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>26800</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -2527,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2559,29 +2729,32 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>83600</v>
+      </c>
+      <c r="E72" s="3">
         <v>71100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>70700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>64900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>60600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>44600</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
       </c>
@@ -2591,8 +2764,11 @@
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2623,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2655,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2687,29 +2869,32 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>195200</v>
+      </c>
+      <c r="E76" s="3">
         <v>178200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>106800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>102800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>98300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>82100</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>8</v>
       </c>
@@ -2719,8 +2904,11 @@
       <c r="L76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2751,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2834,28 +3031,29 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>300</v>
+      </c>
+      <c r="E83" s="3">
         <v>400</v>
-      </c>
-      <c r="E83" s="3">
-        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>300</v>
       </c>
       <c r="G83" s="3">
+        <v>300</v>
+      </c>
+      <c r="H83" s="3">
         <v>800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -2863,11 +3061,14 @@
       <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>100</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2898,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2930,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2962,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2994,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3026,40 +3239,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E89" s="3">
         <v>33600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-14500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>8600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>21900</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3072,40 +3291,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>-1800</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3136,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3168,40 +3394,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H94" s="3">
         <v>-1800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-900</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3214,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3246,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3278,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3310,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3342,100 +3584,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E100" s="3">
         <v>34400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-2100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E102" s="3">
         <v>67000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-14300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>21900</v>
       </c>
-      <c r="L102" s="3" t="s">
+      <c r="M102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GCT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GCT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>GCT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,194 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>153100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>127800</v>
+      </c>
+      <c r="F8" s="3">
         <v>125600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>128000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>124000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>112400</v>
       </c>
-      <c r="H8" s="3">
-        <v>414200</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
+        <v>104200</v>
+      </c>
+      <c r="K8" s="3">
         <v>103700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>111800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>94500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>76400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>43600</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>112800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>98200</v>
+      </c>
+      <c r="F9" s="3">
         <v>98900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>105400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>107000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>161900</v>
       </c>
-      <c r="H9" s="3">
-        <v>324600</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
+        <v>84600</v>
+      </c>
+      <c r="K9" s="3">
         <v>83500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>147300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>133100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>52400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>33900</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>29600</v>
+      </c>
+      <c r="F10" s="3">
         <v>26700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>22600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>17000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>-49500</v>
       </c>
-      <c r="H10" s="3">
-        <v>89600</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K10" s="3">
         <v>20200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-35500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-38600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>24000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,20 +866,22 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>700</v>
+      </c>
+      <c r="F12" s="3">
         <v>1400</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
       </c>
@@ -875,8 +903,14 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,20 +944,26 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>-1100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
@@ -936,17 +976,23 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -959,20 +1005,20 @@
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3">
-        <v>200</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -980,8 +1026,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1044,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>129300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>109900</v>
+      </c>
+      <c r="F17" s="3">
         <v>109500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>123800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>115800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>105000</v>
       </c>
-      <c r="H17" s="3">
-        <v>374800</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>92900</v>
+      </c>
+      <c r="K17" s="3">
         <v>102900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>95100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>83900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>63400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>17900</v>
+      </c>
+      <c r="F18" s="3">
         <v>16100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>4300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>8200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>7400</v>
       </c>
-      <c r="H18" s="3">
-        <v>39400</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K18" s="3">
         <v>800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>16700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>10600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>13000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,31 +1143,33 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="H20" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-600</v>
-      </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K20" s="3">
         <v>-600</v>
@@ -1110,50 +1178,62 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>20200</v>
+      </c>
+      <c r="F21" s="3">
         <v>15300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>3100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>7800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>6800</v>
       </c>
-      <c r="H21" s="3">
-        <v>38800</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>16800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>10100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>13100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1162,98 +1242,116 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>19700</v>
+      </c>
+      <c r="F23" s="3">
         <v>14900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>7300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>6300</v>
       </c>
-      <c r="H23" s="3">
-        <v>37700</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>16600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>9900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>13000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F24" s="3">
         <v>2400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1600</v>
       </c>
-      <c r="H24" s="3">
-        <v>8500</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K24" s="3">
         <v>1800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>3000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>2700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1385,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F26" s="3">
         <v>12500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>6100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>4700</v>
       </c>
-      <c r="H26" s="3">
-        <v>29300</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>13600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>8000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>10400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F27" s="3">
         <v>4100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>5700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1700</v>
       </c>
-      <c r="H27" s="3">
-        <v>9000</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>4200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>3700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1508,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1549,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1590,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,31 +1631,37 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F32" s="3">
         <v>1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="H32" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>600</v>
-      </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K32" s="3">
         <v>600</v>
@@ -1530,45 +1670,57 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>600</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F33" s="3">
         <v>4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>5700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1700</v>
       </c>
-      <c r="H33" s="3">
-        <v>9000</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>4200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>3700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1754,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F35" s="3">
         <v>4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>5700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1700</v>
       </c>
-      <c r="H35" s="3">
-        <v>9000</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>4200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>3700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1862,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1879,51 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>181500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>162700</v>
+      </c>
+      <c r="F41" s="3">
         <v>143500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>116200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>49200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>48900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>63200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>48400</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,148 +1957,178 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>29800</v>
+      </c>
+      <c r="F43" s="3">
         <v>31200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>22200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>23400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>24700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>21800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>29100</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>84800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>80400</v>
+      </c>
+      <c r="F44" s="3">
         <v>78300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>83400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>103400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>110700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>81400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>65200</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F45" s="3">
         <v>5100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>8900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>8300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>3000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>6000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>15500</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>307600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>284400</v>
+      </c>
+      <c r="F46" s="3">
         <v>258100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>230600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>184300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>187300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>172400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>158300</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,43 +2162,55 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>144200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>149500</v>
+      </c>
+      <c r="F48" s="3">
         <v>157200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>138200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>146800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>156700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>11100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>6300</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2244,14 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2285,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2326,55 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E52" s="3">
         <v>3300</v>
       </c>
       <c r="F52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H52" s="3">
         <v>4200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>3300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2408,55 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>455100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>437200</v>
+      </c>
+      <c r="F54" s="3">
         <v>418600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>372100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>335300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>347200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>186800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>164700</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2470,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,207 +2487,239 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>33300</v>
+      </c>
+      <c r="F57" s="3">
         <v>31600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>30400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>30800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>33200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>25100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>25300</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
         <v>3100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>3600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1400</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>81500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>79400</v>
+      </c>
+      <c r="F59" s="3">
         <v>67900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>62700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>58300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>63900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>29200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>27300</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>116400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>112900</v>
+      </c>
+      <c r="F60" s="3">
         <v>102600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>93300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>89300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>100700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>57000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>54000</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>400</v>
+      </c>
+      <c r="F61" s="3">
         <v>900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>3100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1800</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>107200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>112800</v>
+      </c>
+      <c r="F62" s="3">
         <v>119900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>99100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>108700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>112700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1300</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2437,8 +2729,14 @@
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2770,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2811,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2852,55 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>226000</v>
+      </c>
+      <c r="F66" s="3">
         <v>223400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>193900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>200200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>216500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>60900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>55800</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2914,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2951,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2992,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2674,31 +3010,37 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>28300</v>
       </c>
-      <c r="G70" s="3">
+      <c r="I70" s="3">
         <v>27900</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>27500</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>26800</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +3074,55 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>117900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>99500</v>
+      </c>
+      <c r="F72" s="3">
         <v>83600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>71100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>70700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>64900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>60600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>44600</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +3156,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3197,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3238,55 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>231000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>211200</v>
+      </c>
+      <c r="F76" s="3">
         <v>195200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>178200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>106800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>102800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>98300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>82100</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3320,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F81" s="3">
         <v>4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>5700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1700</v>
       </c>
-      <c r="H81" s="3">
-        <v>9000</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>4200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>3700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,13 +3428,15 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
         <v>400</v>
@@ -3047,28 +3445,34 @@
         <v>300</v>
       </c>
       <c r="G83" s="3">
+        <v>400</v>
+      </c>
+      <c r="H83" s="3">
         <v>300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>800</v>
       </c>
       <c r="I83" s="3">
         <v>300</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
+        <v>100</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3506,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3547,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3588,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3629,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3670,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>20300</v>
+      </c>
+      <c r="F89" s="3">
         <v>26300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>33600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>4200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-14500</v>
       </c>
-      <c r="H89" s="3">
-        <v>8600</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>23800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-3500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-5300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-6500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>21900</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3732,51 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-500</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3810,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3851,55 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-500</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>-1800</v>
-      </c>
       <c r="I94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-900</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3913,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3950,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3991,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +4032,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,57 +4073,69 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>34400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F101" s="3">
         <v>3100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>-2100</v>
@@ -3646,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>100</v>
+        <v>-2200</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3654,42 +4152,54 @@
       <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>100</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>19100</v>
+      </c>
+      <c r="F102" s="3">
         <v>27300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>67000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-14300</v>
       </c>
-      <c r="H102" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>20200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-5400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-5600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-7600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>21900</v>
       </c>
-      <c r="M102" s="3" t="s">
+      <c r="O102" s="3" t="s">
         <v>8</v>
       </c>
     </row>
